--- a/MetricasSimilitud/Metricas.xlsx
+++ b/MetricasSimilitud/Metricas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb6250796b8d55ab/Escritorio/ProgramasClase_PIP_0/PIP_UNIDAD_2_2021_3/MetricasSimilitud/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{1A973C05-C946-4E72-993F-B6CDE69733C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B35AFAFD-2860-493E-BC06-85CDDC290885}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{1A973C05-C946-4E72-993F-B6CDE69733C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E307AC6-0C46-4239-AB60-1408942308B6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C2F7D074-55ED-47D5-85C0-BDF77A440062}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="26">
   <si>
     <t>i</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>Diferencia de Carácter Promedio</t>
+  </si>
+  <si>
+    <t>jorge</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Juan C.</t>
   </si>
 </sst>
 </file>
@@ -777,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A6F426-4ACF-4A9D-9CEC-515A971777A1}">
   <dimension ref="A2:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -827,6 +836,9 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
@@ -848,6 +860,9 @@
       <c r="H14" s="1">
         <v>10</v>
       </c>
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
       <c r="K14" t="s">
         <v>3</v>
       </c>
@@ -867,12 +882,12 @@
         <v>8</v>
       </c>
       <c r="Q14" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -896,7 +911,7 @@
         <v>9</v>
       </c>
       <c r="J15" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K15" t="s">
         <v>4</v>
@@ -997,7 +1012,7 @@
       </c>
       <c r="Q18">
         <f>ABS(Q14-Q15)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1013,7 +1028,7 @@
       </c>
       <c r="L20" s="4">
         <f>SUM(M18:Q18)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1054,6 +1069,9 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
@@ -1075,6 +1093,9 @@
       <c r="H31" s="1">
         <v>10</v>
       </c>
+      <c r="J31" t="s">
+        <v>23</v>
+      </c>
       <c r="K31" t="s">
         <v>3</v>
       </c>
@@ -1099,7 +1120,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
@@ -1123,7 +1144,7 @@
         <v>9</v>
       </c>
       <c r="J32" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K32" t="s">
         <v>4</v>
@@ -1297,6 +1318,9 @@
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
       <c r="B49" t="s">
         <v>3</v>
       </c>
@@ -1318,6 +1342,9 @@
       <c r="H49" s="1">
         <v>10</v>
       </c>
+      <c r="J49" t="s">
+        <v>23</v>
+      </c>
       <c r="K49" t="s">
         <v>3</v>
       </c>
@@ -1342,7 +1369,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
@@ -1366,7 +1393,7 @@
         <v>9</v>
       </c>
       <c r="J50" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K50" t="s">
         <v>4</v>
